--- a/システム開発演習/010-外部設計/015-イベント定義書.xlsx
+++ b/システム開発演習/010-外部設計/015-イベント定義書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DI-SYSTEM\FileServer01\TOKYO\ビジネスインテグレーション部\999_個人フォルダ\山埜\2023コムウェア作業\総合演習\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F79D2E-40F8-4A8F-9212-312E5229FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="-12" windowWidth="7656" windowHeight="8736" tabRatio="802" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -21,7 +22,18 @@
     <sheet name="イベント定義 (商品管理機能)" sheetId="32" r:id="rId7"/>
     <sheet name="イベント定義 (注文・会員管理機能)" sheetId="33" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1214,16 +1226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田　太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>山田 太郎</t>
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
@@ -1244,13 +1246,6 @@
   <si>
     <t>2017BAH000X011-004</t>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>山田 太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2017BAH000X011-005</t>
@@ -1874,11 +1869,19 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>髙木 日向子</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 髙木 日向子</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -2752,11 +2755,53 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2794,63 +2839,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2875,35 +2865,60 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2947,55 +2962,43 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1"/>
-    <cellStyle name="標準_機能一覧_テンプレート" xfId="2"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3"/>
-    <cellStyle name="標準_詳細設計書_サンプル" xfId="4"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_機能一覧_テンプレート" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_詳細設計書_サンプル" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3027,7 +3030,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="Line 7"/>
+        <xdr:cNvPr id="1031" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3075,7 +3084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="Line 8"/>
+        <xdr:cNvPr id="1032" name="Line 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3482,12 +3497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="BD27" sqref="BD27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="AL49" sqref="AL49:AY50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -3607,25 +3622,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="85" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -3641,49 +3656,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="69" t="s">
+      <c r="AF3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="82" t="s">
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -3699,26 +3714,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -4324,44 +4339,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="89"/>
+      <c r="I16" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="76"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -4380,42 +4395,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="92"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="79"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -4434,42 +4449,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="91"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="91"/>
-      <c r="AO18" s="91"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="92"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="79"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -4488,42 +4503,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="92"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="79"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -4542,42 +4557,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="91"/>
-      <c r="AJ20" s="91"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="91"/>
-      <c r="AM20" s="91"/>
-      <c r="AN20" s="91"/>
-      <c r="AO20" s="91"/>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="92"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="79"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -4596,42 +4611,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="91"/>
-      <c r="AN21" s="91"/>
-      <c r="AO21" s="91"/>
-      <c r="AP21" s="91"/>
-      <c r="AQ21" s="91"/>
-      <c r="AR21" s="92"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="79"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -4650,42 +4665,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="92"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="79"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -4704,42 +4719,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="91"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="91"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="92"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="79"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -4758,42 +4773,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="91"/>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="91"/>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="91"/>
-      <c r="AN24" s="91"/>
-      <c r="AO24" s="91"/>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="92"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="79"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -4812,42 +4827,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="91"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="91"/>
-      <c r="AJ25" s="91"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="91"/>
-      <c r="AO25" s="91"/>
-      <c r="AP25" s="91"/>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="92"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="79"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -4866,42 +4881,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="91"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="91"/>
-      <c r="AO26" s="91"/>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="92"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="79"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -4920,42 +4935,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="91"/>
-      <c r="AO27" s="91"/>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="92"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="79"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -4974,42 +4989,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
-      <c r="AO28" s="91"/>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="79"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -5028,42 +5043,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="94"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="81"/>
+      <c r="AP29" s="81"/>
+      <c r="AQ29" s="81"/>
+      <c r="AR29" s="82"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -5835,30 +5850,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="69" t="s">
+      <c r="AF45" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="69"/>
-      <c r="AH45" s="69"/>
-      <c r="AI45" s="69"/>
-      <c r="AJ45" s="69"/>
-      <c r="AK45" s="69"/>
-      <c r="AL45" s="82" t="s">
+      <c r="AG45" s="72"/>
+      <c r="AH45" s="72"/>
+      <c r="AI45" s="72"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="72"/>
+      <c r="AL45" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="AM45" s="82"/>
-      <c r="AN45" s="82"/>
-      <c r="AO45" s="82"/>
-      <c r="AP45" s="82"/>
-      <c r="AQ45" s="82"/>
-      <c r="AR45" s="82"/>
-      <c r="AS45" s="82"/>
-      <c r="AT45" s="82"/>
-      <c r="AU45" s="82"/>
-      <c r="AV45" s="82"/>
-      <c r="AW45" s="82"/>
-      <c r="AX45" s="82"/>
-      <c r="AY45" s="82"/>
+      <c r="AM45" s="73"/>
+      <c r="AN45" s="73"/>
+      <c r="AO45" s="73"/>
+      <c r="AP45" s="73"/>
+      <c r="AQ45" s="73"/>
+      <c r="AR45" s="73"/>
+      <c r="AS45" s="73"/>
+      <c r="AT45" s="73"/>
+      <c r="AU45" s="73"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="73"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5893,26 +5908,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="69"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="82"/>
-      <c r="AQ46" s="82"/>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="82"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="82"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="73"/>
+      <c r="AN46" s="73"/>
+      <c r="AO46" s="73"/>
+      <c r="AP46" s="73"/>
+      <c r="AQ46" s="73"/>
+      <c r="AR46" s="73"/>
+      <c r="AS46" s="73"/>
+      <c r="AT46" s="73"/>
+      <c r="AU46" s="73"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="73"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -5947,30 +5962,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="69" t="s">
+      <c r="AF47" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="68">
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="72"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="83">
         <v>42887</v>
       </c>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="68"/>
-      <c r="AP47" s="68"/>
-      <c r="AQ47" s="68"/>
-      <c r="AR47" s="68"/>
-      <c r="AS47" s="68"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="68"/>
-      <c r="AW47" s="68"/>
-      <c r="AX47" s="68"/>
-      <c r="AY47" s="68"/>
+      <c r="AM47" s="83"/>
+      <c r="AN47" s="83"/>
+      <c r="AO47" s="83"/>
+      <c r="AP47" s="83"/>
+      <c r="AQ47" s="83"/>
+      <c r="AR47" s="83"/>
+      <c r="AS47" s="83"/>
+      <c r="AT47" s="83"/>
+      <c r="AU47" s="83"/>
+      <c r="AV47" s="83"/>
+      <c r="AW47" s="83"/>
+      <c r="AX47" s="83"/>
+      <c r="AY47" s="83"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -6005,26 +6020,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="69"/>
-      <c r="AG48" s="69"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="69"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="68"/>
-      <c r="AN48" s="68"/>
-      <c r="AO48" s="68"/>
-      <c r="AP48" s="68"/>
-      <c r="AQ48" s="68"/>
-      <c r="AR48" s="68"/>
-      <c r="AS48" s="68"/>
-      <c r="AT48" s="68"/>
-      <c r="AU48" s="68"/>
-      <c r="AV48" s="68"/>
-      <c r="AW48" s="68"/>
-      <c r="AX48" s="68"/>
-      <c r="AY48" s="68"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="83"/>
+      <c r="AM48" s="83"/>
+      <c r="AN48" s="83"/>
+      <c r="AO48" s="83"/>
+      <c r="AP48" s="83"/>
+      <c r="AQ48" s="83"/>
+      <c r="AR48" s="83"/>
+      <c r="AS48" s="83"/>
+      <c r="AT48" s="83"/>
+      <c r="AU48" s="83"/>
+      <c r="AV48" s="83"/>
+      <c r="AW48" s="83"/>
+      <c r="AX48" s="83"/>
+      <c r="AY48" s="83"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -6059,30 +6074,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="70" t="s">
+      <c r="AF49" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="72"/>
-      <c r="AL49" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM49" s="77"/>
-      <c r="AN49" s="77"/>
-      <c r="AO49" s="77"/>
-      <c r="AP49" s="77"/>
-      <c r="AQ49" s="77"/>
-      <c r="AR49" s="77"/>
-      <c r="AS49" s="77"/>
-      <c r="AT49" s="77"/>
-      <c r="AU49" s="77"/>
-      <c r="AV49" s="77"/>
-      <c r="AW49" s="77"/>
-      <c r="AX49" s="77"/>
-      <c r="AY49" s="78"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="85"/>
+      <c r="AI49" s="85"/>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="86"/>
+      <c r="AL49" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM49" s="91"/>
+      <c r="AN49" s="91"/>
+      <c r="AO49" s="91"/>
+      <c r="AP49" s="91"/>
+      <c r="AQ49" s="91"/>
+      <c r="AR49" s="91"/>
+      <c r="AS49" s="91"/>
+      <c r="AT49" s="91"/>
+      <c r="AU49" s="91"/>
+      <c r="AV49" s="91"/>
+      <c r="AW49" s="91"/>
+      <c r="AX49" s="91"/>
+      <c r="AY49" s="92"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -6117,26 +6132,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="74"/>
-      <c r="AH50" s="74"/>
-      <c r="AI50" s="74"/>
-      <c r="AJ50" s="74"/>
-      <c r="AK50" s="75"/>
-      <c r="AL50" s="79"/>
-      <c r="AM50" s="80"/>
-      <c r="AN50" s="80"/>
-      <c r="AO50" s="80"/>
-      <c r="AP50" s="80"/>
-      <c r="AQ50" s="80"/>
-      <c r="AR50" s="80"/>
-      <c r="AS50" s="80"/>
-      <c r="AT50" s="80"/>
-      <c r="AU50" s="80"/>
-      <c r="AV50" s="80"/>
-      <c r="AW50" s="80"/>
-      <c r="AX50" s="80"/>
-      <c r="AY50" s="81"/>
+      <c r="AF50" s="87"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="89"/>
+      <c r="AL50" s="93"/>
+      <c r="AM50" s="94"/>
+      <c r="AN50" s="94"/>
+      <c r="AO50" s="94"/>
+      <c r="AP50" s="94"/>
+      <c r="AQ50" s="94"/>
+      <c r="AR50" s="94"/>
+      <c r="AS50" s="94"/>
+      <c r="AT50" s="94"/>
+      <c r="AU50" s="94"/>
+      <c r="AV50" s="94"/>
+      <c r="AW50" s="94"/>
+      <c r="AX50" s="94"/>
+      <c r="AY50" s="95"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -6249,17 +6264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6272,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6287,244 +6302,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="100"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="108"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="103"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="98" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="98" t="s">
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="98" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="108"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="101">
+      <c r="A5" s="109">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110">
         <v>42887</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101" t="s">
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="101"/>
-      <c r="AS5" s="101"/>
-      <c r="AT5" s="101"/>
-      <c r="AU5" s="101"/>
-      <c r="AV5" s="101"/>
-      <c r="AW5" s="101"/>
-      <c r="AX5" s="101"/>
-      <c r="AY5" s="101"/>
-      <c r="AZ5" s="101"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="96">
@@ -8807,64 +8822,256 @@
       <c r="AZ45" s="96"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="109">
+      <c r="A46" s="104">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="109"/>
-      <c r="W46" s="109"/>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="109"/>
-      <c r="AD46" s="109"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="109"/>
-      <c r="AK46" s="109"/>
-      <c r="AL46" s="109"/>
-      <c r="AM46" s="109"/>
-      <c r="AN46" s="109"/>
-      <c r="AO46" s="109"/>
-      <c r="AP46" s="109"/>
-      <c r="AQ46" s="109"/>
-      <c r="AR46" s="109"/>
-      <c r="AS46" s="109"/>
-      <c r="AT46" s="109"/>
-      <c r="AU46" s="109"/>
-      <c r="AV46" s="109"/>
-      <c r="AW46" s="109"/>
-      <c r="AX46" s="109"/>
-      <c r="AY46" s="109"/>
-      <c r="AZ46" s="109"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="104"/>
+      <c r="AG46" s="104"/>
+      <c r="AH46" s="104"/>
+      <c r="AI46" s="104"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="104"/>
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="104"/>
+      <c r="AQ46" s="104"/>
+      <c r="AR46" s="104"/>
+      <c r="AS46" s="104"/>
+      <c r="AT46" s="104"/>
+      <c r="AU46" s="104"/>
+      <c r="AV46" s="104"/>
+      <c r="AW46" s="104"/>
+      <c r="AX46" s="104"/>
+      <c r="AY46" s="104"/>
+      <c r="AZ46" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -8889,198 +9096,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9092,11 +9107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+      <selection activeCell="AL2" sqref="AL2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -9107,165 +9122,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
+        <v>42887</v>
+      </c>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
+    </row>
+    <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
-        <v>42887</v>
-      </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
-        <v>3</v>
-      </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
-    </row>
-    <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="12" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -9278,57 +9293,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -9371,7 +9386,7 @@
       <c r="AN7" s="26"/>
       <c r="AO7" s="31"/>
       <c r="AP7" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ7" s="34"/>
       <c r="AR7" s="34"/>
@@ -9428,7 +9443,7 @@
       <c r="AN8" s="23"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
@@ -9456,7 +9471,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -9881,12 +9896,12 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="144">
+      <c r="A17" s="111">
         <v>2</v>
       </c>
-      <c r="B17" s="145"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -9898,7 +9913,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -10364,12 +10379,12 @@
       <c r="AY25" s="25"/>
     </row>
     <row r="26" spans="1:51" ht="12" customHeight="1">
-      <c r="A26" s="144">
+      <c r="A26" s="111">
         <v>3</v>
       </c>
-      <c r="B26" s="145"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -10381,7 +10396,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -10794,12 +10809,12 @@
       <c r="AY33" s="25"/>
     </row>
     <row r="34" spans="1:51" ht="12" customHeight="1">
-      <c r="A34" s="144">
+      <c r="A34" s="111">
         <v>4</v>
       </c>
-      <c r="B34" s="145"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -10811,7 +10826,7 @@
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
@@ -11012,12 +11027,12 @@
       <c r="AY37" s="25"/>
     </row>
     <row r="38" spans="1:51" ht="12" customHeight="1">
-      <c r="A38" s="144">
+      <c r="A38" s="111">
         <v>5</v>
       </c>
-      <c r="B38" s="145"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -11029,7 +11044,7 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
@@ -11230,12 +11245,12 @@
       <c r="AY41" s="25"/>
     </row>
     <row r="42" spans="1:51" ht="12" customHeight="1">
-      <c r="A42" s="144">
+      <c r="A42" s="111">
         <v>6</v>
       </c>
-      <c r="B42" s="145"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -11247,7 +11262,7 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
@@ -11342,12 +11357,12 @@
       <c r="AY43" s="25"/>
     </row>
     <row r="44" spans="1:51" ht="12" customHeight="1">
-      <c r="A44" s="144">
+      <c r="A44" s="111">
         <v>7</v>
       </c>
-      <c r="B44" s="145"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -11359,7 +11374,7 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
@@ -11772,59 +11787,59 @@
       <c r="AY51" s="25"/>
     </row>
     <row r="52" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
-      <c r="AA52" s="147"/>
-      <c r="AB52" s="147"/>
-      <c r="AC52" s="147"/>
-      <c r="AD52" s="147"/>
-      <c r="AE52" s="147"/>
-      <c r="AF52" s="147"/>
-      <c r="AG52" s="147"/>
-      <c r="AH52" s="147"/>
-      <c r="AI52" s="147"/>
-      <c r="AJ52" s="147"/>
-      <c r="AK52" s="147"/>
-      <c r="AL52" s="147"/>
-      <c r="AM52" s="147"/>
-      <c r="AN52" s="147"/>
-      <c r="AO52" s="147"/>
-      <c r="AP52" s="147"/>
-      <c r="AQ52" s="147"/>
-      <c r="AR52" s="147"/>
-      <c r="AS52" s="147"/>
-      <c r="AT52" s="147"/>
-      <c r="AU52" s="147"/>
-      <c r="AV52" s="147"/>
-      <c r="AW52" s="147"/>
-      <c r="AX52" s="147"/>
-      <c r="AY52" s="148"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="114"/>
+      <c r="AC52" s="114"/>
+      <c r="AD52" s="114"/>
+      <c r="AE52" s="114"/>
+      <c r="AF52" s="114"/>
+      <c r="AG52" s="114"/>
+      <c r="AH52" s="114"/>
+      <c r="AI52" s="114"/>
+      <c r="AJ52" s="114"/>
+      <c r="AK52" s="114"/>
+      <c r="AL52" s="114"/>
+      <c r="AM52" s="114"/>
+      <c r="AN52" s="114"/>
+      <c r="AO52" s="114"/>
+      <c r="AP52" s="114"/>
+      <c r="AQ52" s="114"/>
+      <c r="AR52" s="114"/>
+      <c r="AS52" s="114"/>
+      <c r="AT52" s="114"/>
+      <c r="AU52" s="114"/>
+      <c r="AV52" s="114"/>
+      <c r="AW52" s="114"/>
+      <c r="AX52" s="114"/>
+      <c r="AY52" s="115"/>
     </row>
     <row r="53" spans="1:51" ht="10.5" customHeight="1">
       <c r="A53" s="35"/>
@@ -12040,17 +12055,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A52:AY52"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AO6"/>
-    <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -12058,11 +12067,17 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AO6"/>
+    <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A52:AY52"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12074,11 +12089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="AL2" sqref="AL2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -12089,165 +12104,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
         <v>42887</v>
       </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
         <v>4</v>
       </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -12260,57 +12275,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -12322,7 +12337,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -12470,12 +12485,12 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="12" customHeight="1">
-      <c r="A10" s="142">
+      <c r="A10" s="123">
         <v>2</v>
       </c>
-      <c r="B10" s="143"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12487,7 +12502,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -12688,12 +12703,12 @@
       <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="1:51" ht="12" customHeight="1">
-      <c r="A14" s="142">
+      <c r="A14" s="123">
         <v>3</v>
       </c>
-      <c r="B14" s="143"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -12705,7 +12720,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
@@ -12906,12 +12921,12 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="142">
+      <c r="A18" s="123">
         <v>4</v>
       </c>
-      <c r="B18" s="143"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -12923,7 +12938,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
@@ -13018,12 +13033,12 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="123">
         <v>5</v>
       </c>
-      <c r="B20" s="143"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -13035,7 +13050,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
@@ -14243,59 +14258,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="147"/>
-      <c r="AF43" s="147"/>
-      <c r="AG43" s="147"/>
-      <c r="AH43" s="147"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="147"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147"/>
-      <c r="AQ43" s="147"/>
-      <c r="AR43" s="147"/>
-      <c r="AS43" s="147"/>
-      <c r="AT43" s="147"/>
-      <c r="AU43" s="147"/>
-      <c r="AV43" s="147"/>
-      <c r="AW43" s="147"/>
-      <c r="AX43" s="147"/>
-      <c r="AY43" s="148"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="114"/>
+      <c r="AO43" s="114"/>
+      <c r="AP43" s="114"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="115"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -14511,11 +14526,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -14532,6 +14542,11 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14543,11 +14558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21:AE21"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -14558,165 +14573,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
+        <v>42887</v>
+      </c>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
+    </row>
+    <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
-        <v>42887</v>
-      </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
-        <v>5</v>
-      </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
-    </row>
-    <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -14729,57 +14744,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -14791,7 +14806,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -14938,12 +14953,12 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="13.2">
-      <c r="A10" s="144">
+      <c r="A10" s="111">
         <v>2</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14955,7 +14970,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -15314,12 +15329,12 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="13.2">
-      <c r="A17" s="144">
+      <c r="A17" s="111">
         <v>3</v>
       </c>
-      <c r="B17" s="145"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -15331,7 +15346,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -15531,12 +15546,12 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:51" ht="11.25" customHeight="1">
-      <c r="A21" s="144">
+      <c r="A21" s="111">
         <v>4</v>
       </c>
-      <c r="B21" s="145"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -15548,7 +15563,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
@@ -15643,12 +15658,12 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A23" s="144">
+      <c r="A23" s="111">
         <v>5</v>
       </c>
-      <c r="B23" s="145"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -15660,7 +15675,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -15808,12 +15823,12 @@
       <c r="AY25" s="25"/>
     </row>
     <row r="26" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A26" s="144">
+      <c r="A26" s="111">
         <v>6</v>
       </c>
-      <c r="B26" s="145"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -15825,7 +15840,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -16185,12 +16200,12 @@
       <c r="AY32" s="25"/>
     </row>
     <row r="33" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A33" s="144">
+      <c r="A33" s="111">
         <v>7</v>
       </c>
-      <c r="B33" s="145"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -16202,7 +16217,7 @@
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
@@ -16721,59 +16736,59 @@
       <c r="AY42" s="25"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="147"/>
-      <c r="AF43" s="147"/>
-      <c r="AG43" s="147"/>
-      <c r="AH43" s="147"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="147"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147"/>
-      <c r="AQ43" s="147"/>
-      <c r="AR43" s="147"/>
-      <c r="AS43" s="147"/>
-      <c r="AT43" s="147"/>
-      <c r="AU43" s="147"/>
-      <c r="AV43" s="147"/>
-      <c r="AW43" s="147"/>
-      <c r="AX43" s="147"/>
-      <c r="AY43" s="148"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="114"/>
+      <c r="AO43" s="114"/>
+      <c r="AP43" s="114"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="115"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -16989,13 +17004,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A43:AY43"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T1:W1"/>
@@ -17012,6 +17020,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17023,7 +17038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
@@ -17038,165 +17053,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
         <v>42887</v>
       </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
         <v>6</v>
       </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -17209,57 +17224,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -17383,7 +17398,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -17643,12 +17658,12 @@
       <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="1:51" ht="12" customHeight="1">
-      <c r="A14" s="142">
+      <c r="A14" s="123">
         <v>2</v>
       </c>
-      <c r="B14" s="143"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -17772,7 +17787,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -18032,12 +18047,12 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:51" ht="12" customHeight="1">
-      <c r="A21" s="142">
+      <c r="A21" s="123">
         <v>3</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -18161,7 +18176,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="57"/>
       <c r="O23" s="57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
@@ -18256,12 +18271,12 @@
       <c r="AY24" s="25"/>
     </row>
     <row r="25" spans="1:51" ht="12" customHeight="1">
-      <c r="A25" s="142">
+      <c r="A25" s="123">
         <v>4</v>
       </c>
-      <c r="B25" s="143"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -18385,7 +18400,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="57"/>
       <c r="O27" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
@@ -18480,12 +18495,12 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:51" ht="12" customHeight="1">
-      <c r="A29" s="142">
+      <c r="A29" s="123">
         <v>5</v>
       </c>
-      <c r="B29" s="143"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -18609,7 +18624,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="57"/>
       <c r="O31" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
@@ -19605,59 +19620,59 @@
       <c r="AY49" s="28"/>
     </row>
     <row r="50" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A50" s="146" t="s">
+      <c r="A50" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
-      <c r="AA50" s="147"/>
-      <c r="AB50" s="147"/>
-      <c r="AC50" s="147"/>
-      <c r="AD50" s="147"/>
-      <c r="AE50" s="147"/>
-      <c r="AF50" s="147"/>
-      <c r="AG50" s="147"/>
-      <c r="AH50" s="147"/>
-      <c r="AI50" s="147"/>
-      <c r="AJ50" s="147"/>
-      <c r="AK50" s="147"/>
-      <c r="AL50" s="147"/>
-      <c r="AM50" s="147"/>
-      <c r="AN50" s="147"/>
-      <c r="AO50" s="147"/>
-      <c r="AP50" s="147"/>
-      <c r="AQ50" s="147"/>
-      <c r="AR50" s="147"/>
-      <c r="AS50" s="147"/>
-      <c r="AT50" s="147"/>
-      <c r="AU50" s="147"/>
-      <c r="AV50" s="147"/>
-      <c r="AW50" s="147"/>
-      <c r="AX50" s="147"/>
-      <c r="AY50" s="148"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="114"/>
+      <c r="AC50" s="114"/>
+      <c r="AD50" s="114"/>
+      <c r="AE50" s="114"/>
+      <c r="AF50" s="114"/>
+      <c r="AG50" s="114"/>
+      <c r="AH50" s="114"/>
+      <c r="AI50" s="114"/>
+      <c r="AJ50" s="114"/>
+      <c r="AK50" s="114"/>
+      <c r="AL50" s="114"/>
+      <c r="AM50" s="114"/>
+      <c r="AN50" s="114"/>
+      <c r="AO50" s="114"/>
+      <c r="AP50" s="114"/>
+      <c r="AQ50" s="114"/>
+      <c r="AR50" s="114"/>
+      <c r="AS50" s="114"/>
+      <c r="AT50" s="114"/>
+      <c r="AU50" s="114"/>
+      <c r="AV50" s="114"/>
+      <c r="AW50" s="114"/>
+      <c r="AX50" s="114"/>
+      <c r="AY50" s="115"/>
     </row>
     <row r="51" spans="1:51" ht="10.5" customHeight="1">
       <c r="A51" s="35"/>
@@ -19873,6 +19888,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A50:AY50"/>
     <mergeCell ref="A21:B21"/>
@@ -19882,18 +19909,6 @@
     <mergeCell ref="AP6:AY6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19905,7 +19920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
@@ -19920,165 +19935,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
         <v>42887</v>
       </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
         <v>7</v>
       </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -20091,57 +20106,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -20265,7 +20280,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -20305,12 +20320,12 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="12" customHeight="1">
-      <c r="A10" s="142">
+      <c r="A10" s="123">
         <v>2</v>
       </c>
-      <c r="B10" s="143"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20474,12 +20489,12 @@
       <c r="AY12" s="25"/>
     </row>
     <row r="13" spans="1:51" ht="12" customHeight="1">
-      <c r="A13" s="142">
+      <c r="A13" s="123">
         <v>3</v>
       </c>
-      <c r="B13" s="143"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -20603,7 +20618,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
@@ -20698,12 +20713,12 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="142">
+      <c r="A17" s="123">
         <v>4</v>
       </c>
-      <c r="B17" s="143"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -20827,7 +20842,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
@@ -20867,12 +20882,12 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="123">
         <v>5</v>
       </c>
-      <c r="B20" s="143"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -21036,12 +21051,12 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="142">
+      <c r="A23" s="123">
         <v>6</v>
       </c>
-      <c r="B23" s="143"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -21165,7 +21180,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
@@ -21260,12 +21275,12 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="142">
+      <c r="A27" s="123">
         <v>7</v>
       </c>
-      <c r="B27" s="143"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -21389,7 +21404,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -21429,12 +21444,12 @@
       <c r="AY29" s="25"/>
     </row>
     <row r="30" spans="1:51" ht="12" customHeight="1">
-      <c r="A30" s="142">
+      <c r="A30" s="123">
         <v>8</v>
       </c>
-      <c r="B30" s="143"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -21558,7 +21573,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -22128,59 +22143,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="147"/>
-      <c r="AF43" s="147"/>
-      <c r="AG43" s="147"/>
-      <c r="AH43" s="147"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="147"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147"/>
-      <c r="AQ43" s="147"/>
-      <c r="AR43" s="147"/>
-      <c r="AS43" s="147"/>
-      <c r="AT43" s="147"/>
-      <c r="AU43" s="147"/>
-      <c r="AV43" s="147"/>
-      <c r="AW43" s="147"/>
-      <c r="AX43" s="147"/>
-      <c r="AY43" s="148"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="114"/>
+      <c r="AO43" s="114"/>
+      <c r="AP43" s="114"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="115"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -22396,14 +22411,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -22420,6 +22427,14 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22431,11 +22446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+    <sheetView topLeftCell="A4" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="D34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -22446,165 +22461,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="119" t="s">
+      <c r="A1" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="130">
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="134">
         <v>42887</v>
       </c>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="121">
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="125">
         <v>8</v>
       </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="127" t="s">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="126"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="130"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -22617,55 +22632,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138"/>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="141"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="122"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="142">
+      <c r="A7" s="123">
         <v>1</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40" t="s">
         <v>61</v>
       </c>
@@ -22791,7 +22806,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="52"/>
       <c r="O9" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -22886,10 +22901,10 @@
       <c r="AY10" s="25"/>
     </row>
     <row r="11" spans="1:51" ht="12" customHeight="1">
-      <c r="A11" s="142">
+      <c r="A11" s="123">
         <v>2</v>
       </c>
-      <c r="B11" s="143"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="40" t="s">
         <v>62</v>
       </c>
@@ -23015,7 +23030,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
@@ -23110,12 +23125,12 @@
       <c r="AY14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="12" customHeight="1">
-      <c r="A15" s="142">
+      <c r="A15" s="123">
         <v>3</v>
       </c>
-      <c r="B15" s="143"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -23239,7 +23254,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
@@ -23279,12 +23294,12 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="142">
+      <c r="A18" s="123">
         <v>4</v>
       </c>
-      <c r="B18" s="143"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -23393,12 +23408,12 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="123">
         <v>5</v>
       </c>
-      <c r="B20" s="143"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -23522,7 +23537,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
@@ -23617,12 +23632,12 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:51" ht="12" customHeight="1">
-      <c r="A24" s="142">
+      <c r="A24" s="123">
         <v>6</v>
       </c>
-      <c r="B24" s="143"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -23746,7 +23761,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
@@ -23786,12 +23801,12 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="142">
+      <c r="A27" s="123">
         <v>7</v>
       </c>
-      <c r="B27" s="143"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -23915,7 +23930,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -24644,59 +24659,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="147"/>
-      <c r="AE43" s="147"/>
-      <c r="AF43" s="147"/>
-      <c r="AG43" s="147"/>
-      <c r="AH43" s="147"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="147"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147"/>
-      <c r="AQ43" s="147"/>
-      <c r="AR43" s="147"/>
-      <c r="AS43" s="147"/>
-      <c r="AT43" s="147"/>
-      <c r="AU43" s="147"/>
-      <c r="AV43" s="147"/>
-      <c r="AW43" s="147"/>
-      <c r="AX43" s="147"/>
-      <c r="AY43" s="148"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="114"/>
+      <c r="AO43" s="114"/>
+      <c r="AP43" s="114"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="115"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -24912,13 +24927,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -24935,6 +24943,13 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/システム開発演習/010-外部設計/015-イベント定義書.xlsx
+++ b/システム開発演習/010-外部設計/015-イベント定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98412FA-046F-41B1-9B61-096ED797BEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F23E6B-BAA1-44D5-8F38-DC99483A9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -2696,6 +2696,19 @@
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>（在庫が0の時は非表示）</t>
+    <rPh sb="1" eb="3">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3590,53 +3603,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3674,7 +3645,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3700,63 +3729,35 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3800,35 +3801,47 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4460,25 +4473,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="74" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -4494,49 +4507,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="76" t="s">
+      <c r="AF3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="77" t="s">
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -4552,26 +4565,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -5177,44 +5190,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="80"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="93"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -5233,42 +5246,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="83"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="96"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -5287,42 +5300,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="83"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="96"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -5341,42 +5354,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="83"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="96"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -5395,42 +5408,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="83"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="96"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -5449,42 +5462,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="83"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="96"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -5503,42 +5516,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="83"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="96"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -5557,42 +5570,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="83"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="96"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -5611,42 +5624,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="83"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="95"/>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="95"/>
+      <c r="AP24" s="95"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="96"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -5665,42 +5678,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="83"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="95"/>
+      <c r="AM25" s="95"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="95"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="96"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -5719,42 +5732,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="83"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="96"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -5773,42 +5786,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="83"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="95"/>
+      <c r="AQ27" s="95"/>
+      <c r="AR27" s="96"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -5827,42 +5840,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="83"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="95"/>
+      <c r="AM28" s="95"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="95"/>
+      <c r="AP28" s="95"/>
+      <c r="AQ28" s="95"/>
+      <c r="AR28" s="96"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -5881,42 +5894,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="86"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="99"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -6688,30 +6701,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="76" t="s">
+      <c r="AF45" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-      <c r="AK45" s="76"/>
-      <c r="AL45" s="77" t="s">
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="AM45" s="77"/>
-      <c r="AN45" s="77"/>
-      <c r="AO45" s="77"/>
-      <c r="AP45" s="77"/>
-      <c r="AQ45" s="77"/>
-      <c r="AR45" s="77"/>
-      <c r="AS45" s="77"/>
-      <c r="AT45" s="77"/>
-      <c r="AU45" s="77"/>
-      <c r="AV45" s="77"/>
-      <c r="AW45" s="77"/>
-      <c r="AX45" s="77"/>
-      <c r="AY45" s="77"/>
+      <c r="AM45" s="86"/>
+      <c r="AN45" s="86"/>
+      <c r="AO45" s="86"/>
+      <c r="AP45" s="86"/>
+      <c r="AQ45" s="86"/>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="86"/>
+      <c r="AX45" s="86"/>
+      <c r="AY45" s="86"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -6746,26 +6759,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="76"/>
-      <c r="AG46" s="76"/>
-      <c r="AH46" s="76"/>
-      <c r="AI46" s="76"/>
-      <c r="AJ46" s="76"/>
-      <c r="AK46" s="76"/>
-      <c r="AL46" s="77"/>
-      <c r="AM46" s="77"/>
-      <c r="AN46" s="77"/>
-      <c r="AO46" s="77"/>
-      <c r="AP46" s="77"/>
-      <c r="AQ46" s="77"/>
-      <c r="AR46" s="77"/>
-      <c r="AS46" s="77"/>
-      <c r="AT46" s="77"/>
-      <c r="AU46" s="77"/>
-      <c r="AV46" s="77"/>
-      <c r="AW46" s="77"/>
-      <c r="AX46" s="77"/>
-      <c r="AY46" s="77"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
+      <c r="AP46" s="86"/>
+      <c r="AQ46" s="86"/>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86"/>
+      <c r="AY46" s="86"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -6800,30 +6813,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="76" t="s">
+      <c r="AF47" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="76"/>
-      <c r="AH47" s="76"/>
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="87">
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="72">
         <v>45545</v>
       </c>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="87"/>
-      <c r="AP47" s="87"/>
-      <c r="AQ47" s="87"/>
-      <c r="AR47" s="87"/>
-      <c r="AS47" s="87"/>
-      <c r="AT47" s="87"/>
-      <c r="AU47" s="87"/>
-      <c r="AV47" s="87"/>
-      <c r="AW47" s="87"/>
-      <c r="AX47" s="87"/>
-      <c r="AY47" s="87"/>
+      <c r="AM47" s="72"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
+      <c r="AP47" s="72"/>
+      <c r="AQ47" s="72"/>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -6858,26 +6871,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="76"/>
-      <c r="AG48" s="76"/>
-      <c r="AH48" s="76"/>
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
-      <c r="AK48" s="76"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="87"/>
-      <c r="AQ48" s="87"/>
-      <c r="AR48" s="87"/>
-      <c r="AS48" s="87"/>
-      <c r="AT48" s="87"/>
-      <c r="AU48" s="87"/>
-      <c r="AV48" s="87"/>
-      <c r="AW48" s="87"/>
-      <c r="AX48" s="87"/>
-      <c r="AY48" s="87"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="72"/>
+      <c r="AS48" s="72"/>
+      <c r="AT48" s="72"/>
+      <c r="AU48" s="72"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -6912,30 +6925,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="88" t="s">
+      <c r="AF49" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="89"/>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="89"/>
-      <c r="AJ49" s="89"/>
-      <c r="AK49" s="90"/>
-      <c r="AL49" s="94" t="s">
+      <c r="AG49" s="75"/>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="76"/>
+      <c r="AL49" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="AM49" s="95"/>
-      <c r="AN49" s="95"/>
-      <c r="AO49" s="95"/>
-      <c r="AP49" s="95"/>
-      <c r="AQ49" s="95"/>
-      <c r="AR49" s="95"/>
-      <c r="AS49" s="95"/>
-      <c r="AT49" s="95"/>
-      <c r="AU49" s="95"/>
-      <c r="AV49" s="95"/>
-      <c r="AW49" s="95"/>
-      <c r="AX49" s="95"/>
-      <c r="AY49" s="96"/>
+      <c r="AM49" s="81"/>
+      <c r="AN49" s="81"/>
+      <c r="AO49" s="81"/>
+      <c r="AP49" s="81"/>
+      <c r="AQ49" s="81"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="81"/>
+      <c r="AT49" s="81"/>
+      <c r="AU49" s="81"/>
+      <c r="AV49" s="81"/>
+      <c r="AW49" s="81"/>
+      <c r="AX49" s="81"/>
+      <c r="AY49" s="82"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -6970,26 +6983,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="92"/>
-      <c r="AH50" s="92"/>
-      <c r="AI50" s="92"/>
-      <c r="AJ50" s="92"/>
-      <c r="AK50" s="93"/>
-      <c r="AL50" s="97"/>
-      <c r="AM50" s="98"/>
-      <c r="AN50" s="98"/>
-      <c r="AO50" s="98"/>
-      <c r="AP50" s="98"/>
-      <c r="AQ50" s="98"/>
-      <c r="AR50" s="98"/>
-      <c r="AS50" s="98"/>
-      <c r="AT50" s="98"/>
-      <c r="AU50" s="98"/>
-      <c r="AV50" s="98"/>
-      <c r="AW50" s="98"/>
-      <c r="AX50" s="98"/>
-      <c r="AY50" s="99"/>
+      <c r="AF50" s="77"/>
+      <c r="AG50" s="78"/>
+      <c r="AH50" s="78"/>
+      <c r="AI50" s="78"/>
+      <c r="AJ50" s="78"/>
+      <c r="AK50" s="79"/>
+      <c r="AL50" s="83"/>
+      <c r="AM50" s="84"/>
+      <c r="AN50" s="84"/>
+      <c r="AO50" s="84"/>
+      <c r="AP50" s="84"/>
+      <c r="AQ50" s="84"/>
+      <c r="AR50" s="84"/>
+      <c r="AS50" s="84"/>
+      <c r="AT50" s="84"/>
+      <c r="AU50" s="84"/>
+      <c r="AV50" s="84"/>
+      <c r="AW50" s="84"/>
+      <c r="AX50" s="84"/>
+      <c r="AY50" s="85"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7102,17 +7115,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7140,244 +7153,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="104"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="110"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="107"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="113"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="111" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="111" t="s">
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="111" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="113"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="104"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="114">
+      <c r="A5" s="105">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115">
+      <c r="B5" s="105"/>
+      <c r="C5" s="106">
         <v>42887</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="114" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114" t="s">
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114"/>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="114"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="100">
@@ -7385,12 +7398,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="100"/>
-      <c r="C6" s="110">
+      <c r="C6" s="101">
         <v>45544</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="100" t="s">
         <v>183</v>
       </c>
@@ -7450,10 +7463,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="100"/>
       <c r="H7" s="100"/>
       <c r="I7" s="100"/>
@@ -7511,10 +7524,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
       <c r="I8" s="100"/>
@@ -7572,10 +7585,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
       <c r="I9" s="100"/>
@@ -7633,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
       <c r="I10" s="100"/>
@@ -7690,10 +7703,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
       <c r="I11" s="100"/>
@@ -7747,10 +7760,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
@@ -7804,10 +7817,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
       <c r="I13" s="100"/>
@@ -7861,10 +7874,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -7918,10 +7931,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100"/>
@@ -7975,10 +7988,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="100"/>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
@@ -8032,10 +8045,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="100"/>
@@ -8089,10 +8102,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="100"/>
@@ -8146,10 +8159,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
@@ -8203,10 +8216,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
       <c r="I20" s="100"/>
@@ -8260,10 +8273,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="100"/>
@@ -8317,10 +8330,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
@@ -8374,10 +8387,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="100"/>
@@ -8431,10 +8444,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
       <c r="I24" s="100"/>
@@ -8488,10 +8501,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="100"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
@@ -8545,10 +8558,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="100"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
@@ -8602,10 +8615,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="100"/>
       <c r="H27" s="100"/>
       <c r="I27" s="100"/>
@@ -8659,10 +8672,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -8716,10 +8729,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
       <c r="I29" s="100"/>
@@ -8773,10 +8786,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100"/>
@@ -8830,10 +8843,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
       <c r="I31" s="100"/>
@@ -8887,10 +8900,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
       <c r="I32" s="100"/>
@@ -8944,10 +8957,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="100"/>
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
@@ -9001,10 +9014,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
       <c r="G34" s="100"/>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -9058,10 +9071,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="100"/>
       <c r="H35" s="100"/>
       <c r="I35" s="100"/>
@@ -9115,10 +9128,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="100"/>
       <c r="H36" s="100"/>
       <c r="I36" s="100"/>
@@ -9172,10 +9185,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="100"/>
       <c r="H37" s="100"/>
       <c r="I37" s="100"/>
@@ -9229,10 +9242,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
       <c r="G38" s="100"/>
       <c r="H38" s="100"/>
       <c r="I38" s="100"/>
@@ -9286,10 +9299,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="100"/>
       <c r="H39" s="100"/>
       <c r="I39" s="100"/>
@@ -9343,10 +9356,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="100"/>
       <c r="H40" s="100"/>
       <c r="I40" s="100"/>
@@ -9400,10 +9413,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="100"/>
       <c r="H41" s="100"/>
       <c r="I41" s="100"/>
@@ -9457,10 +9470,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="100"/>
       <c r="H42" s="100"/>
       <c r="I42" s="100"/>
@@ -9514,10 +9527,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
       <c r="G43" s="100"/>
       <c r="H43" s="100"/>
       <c r="I43" s="100"/>
@@ -9571,10 +9584,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
       <c r="G44" s="100"/>
       <c r="H44" s="100"/>
       <c r="I44" s="100"/>
@@ -9628,10 +9641,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
       <c r="G45" s="100"/>
       <c r="H45" s="100"/>
       <c r="I45" s="100"/>
@@ -9680,232 +9693,88 @@
       <c r="AZ45" s="100"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="108">
+      <c r="A46" s="114">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="108"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108"/>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="108"/>
-      <c r="AP46" s="108"/>
-      <c r="AQ46" s="108"/>
-      <c r="AR46" s="108"/>
-      <c r="AS46" s="108"/>
-      <c r="AT46" s="108"/>
-      <c r="AU46" s="108"/>
-      <c r="AV46" s="108"/>
-      <c r="AW46" s="108"/>
-      <c r="AX46" s="108"/>
-      <c r="AY46" s="108"/>
-      <c r="AZ46" s="108"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="114"/>
+      <c r="Z46" s="114"/>
+      <c r="AA46" s="114"/>
+      <c r="AB46" s="114"/>
+      <c r="AC46" s="114"/>
+      <c r="AD46" s="114"/>
+      <c r="AE46" s="114"/>
+      <c r="AF46" s="114"/>
+      <c r="AG46" s="114"/>
+      <c r="AH46" s="114"/>
+      <c r="AI46" s="114"/>
+      <c r="AJ46" s="114"/>
+      <c r="AK46" s="114"/>
+      <c r="AL46" s="114"/>
+      <c r="AM46" s="114"/>
+      <c r="AN46" s="114"/>
+      <c r="AO46" s="114"/>
+      <c r="AP46" s="114"/>
+      <c r="AQ46" s="114"/>
+      <c r="AR46" s="114"/>
+      <c r="AS46" s="114"/>
+      <c r="AT46" s="114"/>
+      <c r="AU46" s="114"/>
+      <c r="AV46" s="114"/>
+      <c r="AW46" s="114"/>
+      <c r="AX46" s="114"/>
+      <c r="AY46" s="114"/>
+      <c r="AZ46" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -9930,30 +9799,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9980,165 +9993,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>45546</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>3</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:51" ht="12" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -10151,55 +10164,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>94</v>
       </c>
@@ -10750,10 +10763,10 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:65" ht="12" customHeight="1">
-      <c r="A17" s="116">
+      <c r="A17" s="149">
         <v>2</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="40" t="s">
         <v>110</v>
       </c>
@@ -11090,10 +11103,10 @@
       <c r="BM22" s="69"/>
     </row>
     <row r="23" spans="1:65" ht="12" customHeight="1">
-      <c r="A23" s="116">
+      <c r="A23" s="149">
         <v>3</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="40" t="s">
         <v>138</v>
       </c>
@@ -11612,10 +11625,10 @@
       <c r="BF30" s="29"/>
     </row>
     <row r="31" spans="1:65" ht="12" customHeight="1">
-      <c r="A31" s="116">
+      <c r="A31" s="149">
         <v>4</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="40" t="s">
         <v>95</v>
       </c>
@@ -11846,10 +11859,10 @@
       <c r="BF34" s="23"/>
     </row>
     <row r="35" spans="1:58" ht="12" customHeight="1">
-      <c r="A35" s="116">
+      <c r="A35" s="149">
         <v>5</v>
       </c>
-      <c r="B35" s="117"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="40" t="s">
         <v>104</v>
       </c>
@@ -12078,10 +12091,10 @@
       <c r="BF38" s="23"/>
     </row>
     <row r="39" spans="1:58" ht="12" customHeight="1">
-      <c r="A39" s="116">
+      <c r="A39" s="149">
         <v>6</v>
       </c>
-      <c r="B39" s="117"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="40" t="s">
         <v>96</v>
       </c>
@@ -12430,10 +12443,10 @@
       <c r="BF44" s="60"/>
     </row>
     <row r="45" spans="1:58" ht="12" customHeight="1">
-      <c r="A45" s="116">
+      <c r="A45" s="149">
         <v>7</v>
       </c>
-      <c r="B45" s="117"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="40" t="s">
         <v>97</v>
       </c>
@@ -12885,59 +12898,59 @@
       <c r="AY52" s="25"/>
     </row>
     <row r="53" spans="1:58" ht="10.5" customHeight="1">
-      <c r="A53" s="118" t="s">
+      <c r="A53" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="119"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="119"/>
-      <c r="V53" s="119"/>
-      <c r="W53" s="119"/>
-      <c r="X53" s="119"/>
-      <c r="Y53" s="119"/>
-      <c r="Z53" s="119"/>
-      <c r="AA53" s="119"/>
-      <c r="AB53" s="119"/>
-      <c r="AC53" s="119"/>
-      <c r="AD53" s="119"/>
-      <c r="AE53" s="119"/>
-      <c r="AF53" s="119"/>
-      <c r="AG53" s="119"/>
-      <c r="AH53" s="119"/>
-      <c r="AI53" s="119"/>
-      <c r="AJ53" s="119"/>
-      <c r="AK53" s="119"/>
-      <c r="AL53" s="119"/>
-      <c r="AM53" s="119"/>
-      <c r="AN53" s="119"/>
-      <c r="AO53" s="119"/>
-      <c r="AP53" s="119"/>
-      <c r="AQ53" s="119"/>
-      <c r="AR53" s="119"/>
-      <c r="AS53" s="119"/>
-      <c r="AT53" s="119"/>
-      <c r="AU53" s="119"/>
-      <c r="AV53" s="119"/>
-      <c r="AW53" s="119"/>
-      <c r="AX53" s="119"/>
-      <c r="AY53" s="120"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152"/>
+      <c r="T53" s="152"/>
+      <c r="U53" s="152"/>
+      <c r="V53" s="152"/>
+      <c r="W53" s="152"/>
+      <c r="X53" s="152"/>
+      <c r="Y53" s="152"/>
+      <c r="Z53" s="152"/>
+      <c r="AA53" s="152"/>
+      <c r="AB53" s="152"/>
+      <c r="AC53" s="152"/>
+      <c r="AD53" s="152"/>
+      <c r="AE53" s="152"/>
+      <c r="AF53" s="152"/>
+      <c r="AG53" s="152"/>
+      <c r="AH53" s="152"/>
+      <c r="AI53" s="152"/>
+      <c r="AJ53" s="152"/>
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="152"/>
+      <c r="AM53" s="152"/>
+      <c r="AN53" s="152"/>
+      <c r="AO53" s="152"/>
+      <c r="AP53" s="152"/>
+      <c r="AQ53" s="152"/>
+      <c r="AR53" s="152"/>
+      <c r="AS53" s="152"/>
+      <c r="AT53" s="152"/>
+      <c r="AU53" s="152"/>
+      <c r="AV53" s="152"/>
+      <c r="AW53" s="152"/>
+      <c r="AX53" s="152"/>
+      <c r="AY53" s="153"/>
     </row>
     <row r="54" spans="1:58" ht="10.5" customHeight="1">
       <c r="A54" s="35"/>
@@ -13153,11 +13166,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A53:AY53"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AO6"/>
+    <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -13165,17 +13184,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AO6"/>
-    <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A53:AY53"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13202,165 +13215,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>45546</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>4</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:58" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:58" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:58">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:58" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -13373,55 +13386,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
     </row>
     <row r="7" spans="1:58" ht="12" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>105</v>
       </c>
@@ -13597,10 +13610,10 @@
       <c r="BF9" s="23"/>
     </row>
     <row r="10" spans="1:58" ht="12" customHeight="1">
-      <c r="A10" s="128">
+      <c r="A10" s="147">
         <v>2</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="40" t="s">
         <v>106</v>
       </c>
@@ -13833,10 +13846,10 @@
       <c r="BF13" s="23"/>
     </row>
     <row r="14" spans="1:58" ht="12" customHeight="1">
-      <c r="A14" s="128">
+      <c r="A14" s="147">
         <v>3</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="40" t="s">
         <v>107</v>
       </c>
@@ -14067,10 +14080,10 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="128">
+      <c r="A18" s="147">
         <v>4</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="40" t="s">
         <v>108</v>
       </c>
@@ -14181,10 +14194,10 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="128">
+      <c r="A20" s="147">
         <v>5</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="40" t="s">
         <v>109</v>
       </c>
@@ -15408,59 +15421,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="120"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="152"/>
+      <c r="AO43" s="152"/>
+      <c r="AP43" s="152"/>
+      <c r="AQ43" s="152"/>
+      <c r="AR43" s="152"/>
+      <c r="AS43" s="152"/>
+      <c r="AT43" s="152"/>
+      <c r="AU43" s="152"/>
+      <c r="AV43" s="152"/>
+      <c r="AW43" s="152"/>
+      <c r="AX43" s="152"/>
+      <c r="AY43" s="153"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -15676,6 +15689,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -15692,11 +15710,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15711,8 +15724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BU9" sqref="BU9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -15723,165 +15736,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>45546</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>5</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:58" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:58" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:58">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:58" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -15894,59 +15907,59 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
       <c r="BC6" s="29"/>
       <c r="BD6" s="29"/>
       <c r="BE6" s="29"/>
       <c r="BF6" s="29"/>
     </row>
     <row r="7" spans="1:58" ht="13.2" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>93</v>
       </c>
@@ -16299,10 +16312,10 @@
       <c r="BF12" s="29"/>
     </row>
     <row r="13" spans="1:58" ht="13.2">
-      <c r="A13" s="116">
+      <c r="A13" s="149">
         <v>2</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="40" t="s">
         <v>98</v>
       </c>
@@ -16429,7 +16442,9 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="41"/>
+      <c r="M15" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -16523,10 +16538,10 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:56" ht="13.2">
-      <c r="A17" s="116">
+      <c r="A17" s="149">
         <v>3</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="40" t="s">
         <v>99</v>
       </c>
@@ -16747,10 +16762,10 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A21" s="116">
+      <c r="A21" s="149">
         <v>4</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="40" t="s">
         <v>102</v>
       </c>
@@ -16914,10 +16929,10 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:56" ht="10.5" customHeight="1">
-      <c r="A24" s="116">
+      <c r="A24" s="149">
         <v>5</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="40" t="s">
         <v>103</v>
       </c>
@@ -17083,10 +17098,10 @@
       <c r="BB26" s="69"/>
     </row>
     <row r="27" spans="1:56" ht="10.5" customHeight="1">
-      <c r="A27" s="116">
+      <c r="A27" s="149">
         <v>6</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="40" t="s">
         <v>100</v>
       </c>
@@ -17319,10 +17334,10 @@
       <c r="BD30" s="29"/>
     </row>
     <row r="31" spans="1:56" ht="10.5" customHeight="1">
-      <c r="A31" s="116">
+      <c r="A31" s="149">
         <v>7</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="40" t="s">
         <v>101</v>
       </c>
@@ -17865,59 +17880,59 @@
       <c r="AY40" s="25"/>
     </row>
     <row r="41" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="119"/>
-      <c r="X41" s="119"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="119"/>
-      <c r="AB41" s="119"/>
-      <c r="AC41" s="119"/>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="119"/>
-      <c r="AF41" s="119"/>
-      <c r="AG41" s="119"/>
-      <c r="AH41" s="119"/>
-      <c r="AI41" s="119"/>
-      <c r="AJ41" s="119"/>
-      <c r="AK41" s="119"/>
-      <c r="AL41" s="119"/>
-      <c r="AM41" s="119"/>
-      <c r="AN41" s="119"/>
-      <c r="AO41" s="119"/>
-      <c r="AP41" s="119"/>
-      <c r="AQ41" s="119"/>
-      <c r="AR41" s="119"/>
-      <c r="AS41" s="119"/>
-      <c r="AT41" s="119"/>
-      <c r="AU41" s="119"/>
-      <c r="AV41" s="119"/>
-      <c r="AW41" s="119"/>
-      <c r="AX41" s="119"/>
-      <c r="AY41" s="120"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="152"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="152"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+      <c r="AC41" s="152"/>
+      <c r="AD41" s="152"/>
+      <c r="AE41" s="152"/>
+      <c r="AF41" s="152"/>
+      <c r="AG41" s="152"/>
+      <c r="AH41" s="152"/>
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="152"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="152"/>
+      <c r="AM41" s="152"/>
+      <c r="AN41" s="152"/>
+      <c r="AO41" s="152"/>
+      <c r="AP41" s="152"/>
+      <c r="AQ41" s="152"/>
+      <c r="AR41" s="152"/>
+      <c r="AS41" s="152"/>
+      <c r="AT41" s="152"/>
+      <c r="AU41" s="152"/>
+      <c r="AV41" s="152"/>
+      <c r="AW41" s="152"/>
+      <c r="AX41" s="152"/>
+      <c r="AY41" s="153"/>
     </row>
     <row r="42" spans="1:51" ht="10.5" customHeight="1">
       <c r="A42" s="35"/>
@@ -18133,6 +18148,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A41:AY41"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T1:W1"/>
@@ -18149,13 +18171,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18182,165 +18197,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>42887</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>6</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -18353,55 +18368,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>111</v>
       </c>
@@ -18787,10 +18802,10 @@
       <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="1:51" ht="12" customHeight="1">
-      <c r="A14" s="128">
+      <c r="A14" s="147">
         <v>2</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="40" t="s">
         <v>112</v>
       </c>
@@ -19176,10 +19191,10 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:51" ht="12" customHeight="1">
-      <c r="A21" s="128">
+      <c r="A21" s="147">
         <v>3</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="40" t="s">
         <v>122</v>
       </c>
@@ -19400,10 +19415,10 @@
       <c r="AY24" s="25"/>
     </row>
     <row r="25" spans="1:51" ht="12" customHeight="1">
-      <c r="A25" s="128">
+      <c r="A25" s="147">
         <v>4</v>
       </c>
-      <c r="B25" s="129"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="40" t="s">
         <v>126</v>
       </c>
@@ -19624,10 +19639,10 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:51" ht="12" customHeight="1">
-      <c r="A29" s="128">
+      <c r="A29" s="147">
         <v>5</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="40" t="s">
         <v>113</v>
       </c>
@@ -20749,59 +20764,59 @@
       <c r="AY49" s="28"/>
     </row>
     <row r="50" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="119"/>
-      <c r="S50" s="119"/>
-      <c r="T50" s="119"/>
-      <c r="U50" s="119"/>
-      <c r="V50" s="119"/>
-      <c r="W50" s="119"/>
-      <c r="X50" s="119"/>
-      <c r="Y50" s="119"/>
-      <c r="Z50" s="119"/>
-      <c r="AA50" s="119"/>
-      <c r="AB50" s="119"/>
-      <c r="AC50" s="119"/>
-      <c r="AD50" s="119"/>
-      <c r="AE50" s="119"/>
-      <c r="AF50" s="119"/>
-      <c r="AG50" s="119"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="119"/>
-      <c r="AJ50" s="119"/>
-      <c r="AK50" s="119"/>
-      <c r="AL50" s="119"/>
-      <c r="AM50" s="119"/>
-      <c r="AN50" s="119"/>
-      <c r="AO50" s="119"/>
-      <c r="AP50" s="119"/>
-      <c r="AQ50" s="119"/>
-      <c r="AR50" s="119"/>
-      <c r="AS50" s="119"/>
-      <c r="AT50" s="119"/>
-      <c r="AU50" s="119"/>
-      <c r="AV50" s="119"/>
-      <c r="AW50" s="119"/>
-      <c r="AX50" s="119"/>
-      <c r="AY50" s="120"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="152"/>
+      <c r="Z50" s="152"/>
+      <c r="AA50" s="152"/>
+      <c r="AB50" s="152"/>
+      <c r="AC50" s="152"/>
+      <c r="AD50" s="152"/>
+      <c r="AE50" s="152"/>
+      <c r="AF50" s="152"/>
+      <c r="AG50" s="152"/>
+      <c r="AH50" s="152"/>
+      <c r="AI50" s="152"/>
+      <c r="AJ50" s="152"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="152"/>
+      <c r="AM50" s="152"/>
+      <c r="AN50" s="152"/>
+      <c r="AO50" s="152"/>
+      <c r="AP50" s="152"/>
+      <c r="AQ50" s="152"/>
+      <c r="AR50" s="152"/>
+      <c r="AS50" s="152"/>
+      <c r="AT50" s="152"/>
+      <c r="AU50" s="152"/>
+      <c r="AV50" s="152"/>
+      <c r="AW50" s="152"/>
+      <c r="AX50" s="152"/>
+      <c r="AY50" s="153"/>
     </row>
     <row r="51" spans="1:51" ht="10.5" customHeight="1">
       <c r="A51" s="35"/>
@@ -21017,18 +21032,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A50:AY50"/>
     <mergeCell ref="A21:B21"/>
@@ -21038,6 +21041,18 @@
     <mergeCell ref="AP6:AY6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -21064,165 +21079,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>42887</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>7</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -21235,55 +21250,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>119</v>
       </c>
@@ -21449,10 +21464,10 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="12" customHeight="1">
-      <c r="A10" s="128">
+      <c r="A10" s="147">
         <v>2</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="40" t="s">
         <v>120</v>
       </c>
@@ -21618,10 +21633,10 @@
       <c r="AY12" s="25"/>
     </row>
     <row r="13" spans="1:51" ht="12" customHeight="1">
-      <c r="A13" s="128">
+      <c r="A13" s="147">
         <v>3</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="148"/>
       <c r="C13" s="40" t="s">
         <v>121</v>
       </c>
@@ -21842,10 +21857,10 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="128">
+      <c r="A17" s="147">
         <v>4</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="40" t="s">
         <v>123</v>
       </c>
@@ -22011,10 +22026,10 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="128">
+      <c r="A20" s="147">
         <v>5</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="40" t="s">
         <v>124</v>
       </c>
@@ -22180,10 +22195,10 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="128">
+      <c r="A23" s="147">
         <v>6</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="40" t="s">
         <v>125</v>
       </c>
@@ -22404,10 +22419,10 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="128">
+      <c r="A27" s="147">
         <v>7</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="40" t="s">
         <v>127</v>
       </c>
@@ -22573,10 +22588,10 @@
       <c r="AY29" s="25"/>
     </row>
     <row r="30" spans="1:51" ht="12" customHeight="1">
-      <c r="A30" s="128">
+      <c r="A30" s="147">
         <v>8</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="40" t="s">
         <v>128</v>
       </c>
@@ -23272,59 +23287,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="120"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="152"/>
+      <c r="AO43" s="152"/>
+      <c r="AP43" s="152"/>
+      <c r="AQ43" s="152"/>
+      <c r="AR43" s="152"/>
+      <c r="AS43" s="152"/>
+      <c r="AT43" s="152"/>
+      <c r="AU43" s="152"/>
+      <c r="AV43" s="152"/>
+      <c r="AW43" s="152"/>
+      <c r="AX43" s="152"/>
+      <c r="AY43" s="153"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -23540,6 +23555,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -23556,14 +23579,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23590,165 +23605,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="152" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="152" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="139">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="135">
         <v>42887</v>
       </c>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="140" t="s">
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="130">
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="126">
         <v>8</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="132"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="128"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="136" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="136" t="s">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="138" t="s">
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="135"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="131"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -23761,55 +23776,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="126" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="127"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
+      <c r="AS6" s="145"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="145"/>
+      <c r="AW6" s="145"/>
+      <c r="AX6" s="145"/>
+      <c r="AY6" s="146"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="40" t="s">
         <v>58</v>
       </c>
@@ -24030,10 +24045,10 @@
       <c r="AY10" s="25"/>
     </row>
     <row r="11" spans="1:51" ht="12" customHeight="1">
-      <c r="A11" s="128">
+      <c r="A11" s="147">
         <v>2</v>
       </c>
-      <c r="B11" s="129"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="40" t="s">
         <v>59</v>
       </c>
@@ -24254,10 +24269,10 @@
       <c r="AY14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="12" customHeight="1">
-      <c r="A15" s="128">
+      <c r="A15" s="147">
         <v>3</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="40" t="s">
         <v>115</v>
       </c>
@@ -24423,10 +24438,10 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="128">
+      <c r="A18" s="147">
         <v>4</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="40" t="s">
         <v>114</v>
       </c>
@@ -24537,10 +24552,10 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="128">
+      <c r="A20" s="147">
         <v>5</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="40" t="s">
         <v>116</v>
       </c>
@@ -24761,10 +24776,10 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:51" ht="12" customHeight="1">
-      <c r="A24" s="128">
+      <c r="A24" s="147">
         <v>6</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="40" t="s">
         <v>117</v>
       </c>
@@ -24930,10 +24945,10 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="128">
+      <c r="A27" s="147">
         <v>7</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="40" t="s">
         <v>118</v>
       </c>
@@ -25788,59 +25803,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="120"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="152"/>
+      <c r="AO43" s="152"/>
+      <c r="AP43" s="152"/>
+      <c r="AQ43" s="152"/>
+      <c r="AR43" s="152"/>
+      <c r="AS43" s="152"/>
+      <c r="AT43" s="152"/>
+      <c r="AU43" s="152"/>
+      <c r="AV43" s="152"/>
+      <c r="AW43" s="152"/>
+      <c r="AX43" s="152"/>
+      <c r="AY43" s="153"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -26056,6 +26071,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -26072,13 +26094,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
